--- a/data/prepro_orig_datas/result_dict.xlsx
+++ b/data/prepro_orig_datas/result_dict.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['1.出院记录诊断中包含Killip分级或者心功能？级。', '2.入院记录中入院诊断']</t>
+          <t>[{'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;心功能I级)|(?P&lt;b&gt;心功能II级)|(?P&lt;c&gt;心功能III级)|(?P&lt;d&gt;心功能IV级)'}, {'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '模型', '规则': '提到Killip分级或者心功能分级为？选项：\\nA. 心功能I级\\nB. 心功能II级\\nC. 心功能III级\\nD. 心功能IV级'}]</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['1、入院记录：心电图', '2、入院记录，辅助检查，心电图', '3、医嘱优先级临时医嘱，医嘱开始时间就诊第一天，医嘱名称包含心电图。3选1']</t>
+          <t>[{'文件名': '入院记录', '表索引': '入院记录', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;心电图)'}, {'文件名': '入院记录', '表索引': '辅助检查', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;心电图)'}, {'文件名': '医嘱', '表索引': '临时医嘱', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;心电图)'}, {'文件名': '入院记录', '表索引': '入院记录', '行筛选条件': '心电图|检查', '解析方式': '模型', '规则': '是否做了心电图检查？请直接回答“是”或者“否”。'}, {'文件名': '入院记录', '表索引': '辅助检查', '行筛选条件': '', '解析方式': '模型', '规则': '是否做了心电图检查？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['医嘱中使用是否使用波立维、氯吡格雷、替格瑞洛', '诊断中是否有颅内出血、消化道溃疡、消化道出血等']</t>
+          <t>[{'文件名': '医嘱', '表索引': '_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;n&gt;波立维|氯吡格雷|替格瑞洛)'}, {'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;颅内出血|消化道溃疡|消化道出血)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '行筛选条件': '', '解析方式': '模型', '规则': '是否提到有P2Y12受体拮抗剂禁忌证？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['入院当天临时医嘱，医嘱名称，中有胸片检查，入院后第一天有胸片检查或者入院记录中有描述']</t>
+          <t>[{'文件名': '医嘱', '表索引': '临时医嘱', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;X线|胸片)'}, {'文件名': '其他检查结果', '表索引': '', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;X线|胸片)'}, {'文件名': '其他检查结果', '表索引': '', '行筛选条件': '', '解析方式': '模型', '规则': '是否做了X线胸片检查？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['胸片或CT的检查结果，因无胸片报告，可从入院记录辅助检查中胸部CT报告中获取']</t>
+          <t>[{'文件名': '入院记录', '表索引': '辅助检查', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;肺淤血|肺水肿)'}, {'文件名': '入院记录', '表索引': '入院诊断', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;肺淤血|肺水肿)'}, {'文件名': '入院记录', '表索引': '辅助检查', '行筛选条件': '', '解析方式': '模型', '规则': '患者是否有肺淤血或肺水肿？请直接回答“是”或者“否”。'}, {'文件名': '入院记录', '表索引': '入院诊断', '行筛选条件': '', '解析方式': '模型', '规则': '患者是否有肺淤血或肺水肿？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['入院当天或入院后第一天临时医嘱中是否有超声心动图检查']</t>
+          <t>[{'文件名': '入院记录', '表索引': '入院记录', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;超声心动图)'}, {'文件名': '入院记录', '表索引': '辅助检查', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;超声心动图)'}, {'文件名': '医嘱', '表索引': '临时医嘱', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;超声心动图)'}]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['超声结果中有明确描述则有']</t>
+          <t>[{'文件名': '超声心动图结果', '表索引': '', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;室壁瘤)'}, {'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;室壁瘤)'}, {'文件名': '超声心动图结果', '表索引': '', '行筛选条件': '', '解析方式': '模型', '规则': '患者是否确诊室壁瘤（注意，节段性室壁运动异常不代表室壁瘤形成）？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['超声结果中有明确描述则有']</t>
+          <t>[{'文件名': '超声心动图结果', '表索引': '', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;左心室内血栓)'}, {'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;左心室内血栓)'}, {'文件名': '超声心动图结果', '表索引': '', '行筛选条件': '', '解析方式': '模型', '规则': '患者是否确诊左心室内血栓？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['入院记录诊断，急性心梗', '12h内病程记录、医嘱记录溶栓治疗，药物包括尿激酶、链激酶、重组人组织型纤维蛋白、溶酶原激活剂，出院记录中诊疗经过描述溶栓治疗']</t>
+          <t>[{'文件名': '入院记录', '表索引': '入院诊断', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;急性心梗)'}, {'文件名': '医嘱', '表索引': '_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;尿激酶|链激酶|重组人组织型纤维蛋白|溶酶原激活剂)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;溶栓)'}]</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['病历有PCI手术记录，医嘱中有G型臂手术']</t>
+          <t>[{'文件名': '医嘱', '表索引': '_手术', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;经皮冠状动脉|G型臂手术)'}]</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['3-2-1有则无禁忌症，病程记录是否提到不适合PCI，是否有颅内出血、病人家属拒绝']</t>
+          <t>[{'文件名': '出院记录', '表索引': '诊疗经过', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;PCI禁忌|颅内出血)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '行筛选条件': '', '解析方式': '模型', '规则': '是否提到有PCI禁忌证（颅内出血）或者其他不能做PCI的情况？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['PCI记录中根据造影结果描述内容判断']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '结论', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;左前降支|LAD)|(?P&lt;b&gt;回旋支|LCX)|(?P&lt;c&gt;右冠状动脉|RCA)|(?P&lt;d&gt;左主干|LM)|(?P&lt;UTD&gt;无阳性病变血管)'}, {'文件名': '冠状动脉造影', '表索引': '结论', '行筛选条件': '', '解析方式': '模型', '规则': '患者的病变血管包括哪些？请从以下选项中选择（多选）：\\nA. 左前降支（LAD）\\nB. 回旋支（LCX）\\nC. 右冠状动脉（RCA）\\nD. 左主干（LM）\\nE. 无阳性病变血管'}]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['PCI记录中根据造影结果中左主干狭窄程度判断']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '左前降支', '解析方式': '模型', '规则': '患者的左前降支狭窄程度（%）为？\\n选项：\\nA. 1-25%\\nB. 25-50%\\nC. 50-70%\\nD. 70-100%\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['PCI记录中根据造影结果中TIMI级别描述']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '左前降支', '解析方式': '规则', '规则': '(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级)'}, {'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '左前降支', '解析方式': '模型', '规则': '患者的左前降支的TIMI等级为？\\n选项：\\nA. 0级\\nB. I级\\nC. II级\\nD. III级\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['同3-2-3-2-1']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '回旋支', '解析方式': '模型', '规则': '患者的回旋支狭窄程度（%）为？\\n选项：\\nA. 1-25%\\nB. 25-50%\\nC. 50-70%\\nD. 70-100%\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['同3-2-3-2-5']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '回旋支', '解析方式': '规则', '规则': '(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级)'}, {'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '回旋支', '解析方式': '模型', '规则': '患者的回旋支的TIMI等级为？\\n选项：\\nA. 0级\\nB. I级\\nC. II级\\nD. III级\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['同3-2-3-2-1']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '右冠状动脉', '解析方式': '模型', '规则': '患者的右冠状动脉狭窄程度（%）为？\\n选项：\\nA. 1-25%\\nB. 25-50%\\nC. 50-70%\\nD. 70-100%\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['同3-2-3-2-5']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '右冠状动脉', '解析方式': '规则', '规则': '(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级)'}, {'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '右冠状动脉', '解析方式': '模型', '规则': '患者的右冠状动脉的TIMI等级为？\\n选项：\\nA. 0级\\nB. I级\\nC. II级\\nD. III级\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['同3-2-3-2-1']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '左主干', '解析方式': '模型', '规则': '患者的左主干狭窄程度（%）为？\\n选项：\\nA. 1-25%\\nB. 25-50%\\nC. 50-70%\\nD. 70-100%\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['同3-2-3-2-5']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '左主干', '解析方式': '规则', '规则': '(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级)'}, {'文件名': '冠状动脉造影', '表索引': '冠状动脉造影', '行筛选条件': '左主干', '解析方式': '模型', '规则': '患者的左主干的TIMI等级为？\\n选项：\\nA. 0级\\nB. I级\\nC. II级\\nD. III级\\nE. 无法确定'}]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '介入治疗结果', '行筛选条件': '靶病变位置|支架', '解析方式': '规则', '规则': '(?P&lt;b&gt;靶病变位置[:：]左主干[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]左主干[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]左主干[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))'}]</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['同3-3-3-3-2']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '介入治疗结果', '行筛选条件': '靶病变位置|支架', '解析方式': '规则', '规则': '(?P&lt;b&gt;靶病变位置[:：](左前降支|左前)[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：](左前降支|左前)[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：](左前降支|左前)[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))'}]</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['同3-3-3-3-2']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '介入治疗结果', '行筛选条件': '靶病变位置|支架', '解析方式': '规则', '规则': '(?P&lt;b&gt;靶病变位置[:：]回旋支[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]回旋支[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]回旋支[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))'}]</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['同3-3-3-3-2']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '介入治疗结果', '行筛选条件': '靶病变位置|支架', '解析方式': '规则', '规则': '(?P&lt;b&gt;靶病变位置[:：]左主干，左前降支[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]左主干，左前降支[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]左主干，左前降支[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))'}]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['同3-3-3-3-2']</t>
+          <t>[{'文件名': '冠状动脉造影', '表索引': '介入治疗结果', '行筛选条件': '靶病变位置|支架', '解析方式': '规则', '规则': '(?P&lt;b&gt;靶病变位置[:：]右冠状动脉[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]右冠状动脉[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创  Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]右冠状动脉[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))'}]</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;y&gt;阿司匹林|波立维|克赛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;阿司匹林|波立维|克赛)'}]</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;普通肝素)|(?P&lt;b&gt;依诺肝素)|(?P&lt;c&gt;比伐芦定)|(?&lt;oth&gt;低分子肝素)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;普通肝素)|(?P&lt;b&gt;依诺肝素)|(?P&lt;c&gt;比伐芦定)|(?P&lt;oth&gt;低分子肝素)'}]</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '_药物', '解析方式': '规则', '规则': '(?P&lt;n&gt;美托洛尔|倍他乐克|普萘洛尔|阿替洛尔|比索洛尔|拉贝洛尔|塞利洛尔|卡维地洛)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '解析方式': '规则', '规则': '(?P&lt;y&gt;禁忌症)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '解析方式': '模型', '规则': '如果该患者患有支气管哮喘，或者患有严重心率过缓，或者三度房室传导阻滞，或者患有严重心衰，则答案为y'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;n&gt;美托洛尔|倍他乐克|普萘洛尔|阿替洛尔|比索洛尔|拉贝洛尔|塞利洛尔|卡维地洛)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;禁忌症)'}, {'文件名': '出院记录', '表索引': '诊疗经过', '行筛选条件': '', '解析方式': '模型', '规则': '患者是否患有支气管哮喘，或者严重心率过缓，或者三度房室传导阻滞，或者严重心衰？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '_手术', '解析方式': '规则', '规则': '(?P&lt;a&gt;美托洛尔|倍他乐克)|(?P&lt;b&gt;普萘洛尔)|(?P&lt;c&gt;阿替洛尔)|(?P&lt;d&gt;比索洛尔)|(?P&lt;e&gt;拉贝洛尔)|(?P&lt;f&gt;塞利洛尔)|(?P&lt;g&gt;卡维地洛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '_手术', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;美托洛尔|倍他乐克)|(?P&lt;b&gt;普萘洛尔)|(?P&lt;c&gt;阿替洛尔)|(?P&lt;d&gt;比索洛尔)|(?P&lt;e&gt;拉贝洛尔)|(?P&lt;f&gt;塞利洛尔)|(?P&lt;g&gt;卡维地洛)'}]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;y&gt;阿司匹林|氯吡格雷|替格瑞洛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;阿司匹林|氯吡格雷|替格瑞洛)'}]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;d1&gt;阿司匹林.*?氯吡格雷)|(?P&lt;d2&gt;氯吡格雷.*?阿司匹林)|(?P&lt;e1&gt;阿司匹林.*?替格瑞洛)|(?P&lt;e2&gt;替格瑞洛.*?阿司匹林)|(?P&lt;a&gt;阿司匹林)|(?P&lt;b&gt;氯吡格雷)|(?P&lt;c&gt;替格瑞洛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;d1&gt;阿司匹林.*?氯吡格雷)|(?P&lt;d2&gt;氯吡格雷.*?阿司匹林)|(?P&lt;e1&gt;阿司匹林.*?替格瑞洛)|(?P&lt;e2&gt;替格瑞洛.*?阿司匹林)|(?P&lt;a&gt;阿司匹林)|(?P&lt;b&gt;氯吡格雷)|(?P&lt;c&gt;替格瑞洛)'}]</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;y&gt;美托洛尔|倍他乐克|普萘洛尔|天诺敏|阿替洛尔|博苏|山益新|康忻|苏莱乐|比索洛尔|拉贝洛尔|二乙脲心安|塞利心安|双胺心安|塞利洛尔|卡维地洛|吲哚布芬)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;美托洛尔|倍他乐克|普萘洛尔|天诺敏|阿替洛尔|博苏|山益新|康忻|苏莱乐|比索洛尔|拉贝洛尔|二乙脲心安|塞利心安|双胺心安|塞利洛尔|卡维地洛|吲哚布芬)'}]</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;美托洛尔|倍他乐克)|(?P&lt;b&gt;普萘洛尔)|(?P&lt;c&gt;天诺敏|阿替洛尔)|(?P&lt;d&gt;博苏|山益新|康忻|苏莱乐|比索洛尔)|(?P&lt;e&gt;拉贝洛尔)|(?P&lt;f&gt;二乙脲心安|塞利心安|双胺心安|塞利洛尔)|(?P&lt;g&gt;卡维地洛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;美托洛尔|倍他乐克)|(?P&lt;b&gt;普萘洛尔)|(?P&lt;c&gt;天诺敏|阿替洛尔)|(?P&lt;d&gt;博苏|山益新|康忻|苏莱乐|比索洛尔)|(?P&lt;e&gt;拉贝洛尔)|(?P&lt;f&gt;二乙脲心安|塞利心安|双胺心安|塞利洛尔)|(?P&lt;g&gt;卡维地洛)'}]</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;n&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)'}, {'文件名': '出院记录', '表索引': '出院诊断', '解析方式': '模型', '规则': '该患者是否有肾功能不全，如果有，答案为y'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;n&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)'}, {'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '模型', '规则': '该患者是否有肾功能不全？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;y&gt;沙坦|普利|雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;沙坦|普利|雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)'}]</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;雅利|福辛普利)|(?P&lt;b&gt;雅施达|培哚普利)|(?P&lt;c&gt;瑞素坦|雷米普利)|(?P&lt;d&gt;敌亚平|贝那普利)|(?P&lt;oth&gt;ACEI|acei)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;雅利|福辛普利)|(?P&lt;b&gt;雅施达|培哚普利)|(?P&lt;c&gt;瑞素坦|雷米普利)|(?P&lt;d&gt;敌亚平|贝那普利)|(?P&lt;oth&gt;ACEI|acei)'}]</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;缬沙坦)|(?P&lt;b&gt;氯沙坦)|(?P&lt;c&gt;厄贝沙坦)|(?P&lt;d&gt;替米沙坦)|(?P&lt;oth&gt;ARB)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;缬沙坦)|(?P&lt;b&gt;氯沙坦)|(?P&lt;c&gt;厄贝沙坦)|(?P&lt;d&gt;替米沙坦)|(?P&lt;oth&gt;ARB)'}]</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;n&gt;他汀)'}, {'文件名': '出院记录', '表索引': '出院诊断', '解析方式': '模型', '规则': '如果是孕妇并且在哺乳期，或者患者出现肝功能不良或者功能不良等症状，则答案为y'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;n&gt;他汀)'}, {'文件名': '出院记录', '表索引': '出院诊断', '行筛选条件': '', '解析方式': '模型', '规则': '患者是否为哺乳期孕妇或者有肝功能不良、肾功能不良等症状？请直接回答“是”或者“否”。'}]</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;n&gt;.*?)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;n&gt;.*?)'}]</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;阿托伐他汀)|(?P&lt;b&gt;瑞舒伐他汀)|(?P&lt;c&gt;辛伐他汀)|(?P&lt;d&gt;普伐他汀)|(?P&lt;e&gt;氟伐他汀)|(?P&lt;f&gt;洛伐他汀)|(?P&lt;oth&gt;他汀)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '长期医嘱_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;阿托伐他汀)|(?P&lt;b&gt;瑞舒伐他汀)|(?P&lt;c&gt;辛伐他汀)|(?P&lt;d&gt;普伐他汀)|(?P&lt;e&gt;氟伐他汀)|(?P&lt;f&gt;洛伐他汀)|(?P&lt;oth&gt;他汀)'}]</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;y&gt;抗血小板|阿司匹林|氯吡格雷|替格瑞洛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;抗血小板|阿司匹林|氯吡格雷|替格瑞洛)'}]</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;d1&gt;阿司匹林.*?氯吡格雷)|(?P&lt;d2&gt;氯吡格雷.*?阿司匹林)|(?P&lt;e1&gt;阿司匹林.*?替格瑞洛)|(?P&lt;e2&gt;替格瑞洛.*?阿司匹林)|(?P&lt;a&gt;阿司匹林)|(?P&lt;b&gt;氯吡格雷)|(?P&lt;c&gt;替格瑞洛)|(?P&lt;oth&gt;抗血小板)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;d1&gt;阿司匹林.*?氯吡格雷)|(?P&lt;d2&gt;氯吡格雷.*?阿司匹林)|(?P&lt;e1&gt;阿司匹林.*?替格瑞洛)|(?P&lt;e2&gt;替格瑞洛.*?阿司匹林)|(?P&lt;a&gt;阿司匹林)|(?P&lt;b&gt;氯吡格雷)|(?P&lt;c&gt;替格瑞洛)|(?P&lt;oth&gt;抗血小板)'}]</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;y&gt;美托洛尔|倍他乐克|普萘洛尔|天诺敏|阿替洛尔|博苏|山益新|康忻|苏莱乐|比索洛尔|拉贝洛尔|二乙脲心安|塞利心安|双胺心安|塞利洛尔|卡维地洛|吲哚布芬)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;y&gt;美托洛尔|倍他乐克|普萘洛尔|天诺敏|阿替洛尔|博苏|山益新|康忻|苏莱乐|比索洛尔|拉贝洛尔|二乙脲心安|塞利心安|双胺心安|塞利洛尔|卡维地洛|吲哚布芬)'}]</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;美托洛尔|倍他乐克)|(?P&lt;b&gt;普萘洛尔)|(?P&lt;c&gt;天诺敏|阿替洛尔)|(?P&lt;d&gt;博苏|山益新|康忻|苏莱乐|比索洛尔)|(?P&lt;e&gt;拉贝洛尔)|(?P&lt;f&gt;二乙脲心安|塞利心安|双胺心安|塞利洛尔)|(?P&lt;g&gt;卡维地洛)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;美托洛尔|倍他乐克)|(?P&lt;b&gt;普萘洛尔)|(?P&lt;c&gt;天诺敏|阿替洛尔)|(?P&lt;d&gt;博苏|山益新|康忻|苏莱乐|比索洛尔)|(?P&lt;e&gt;拉贝洛尔)|(?P&lt;f&gt;二乙脲心安|塞利心安|双胺心安|塞利洛尔)|(?P&lt;g&gt;卡维地洛)'}]</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;n&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;n&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)'}]</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利|ACEI|acei)|(?P&lt;b&gt;缬沙坦|氯沙坦|厄贝沙坦|替米沙坦|ARB)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利|ACEI|acei)|(?P&lt;b&gt;缬沙坦|氯沙坦|厄贝沙坦|替米沙坦|ARB)'}]</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;雅利|福辛普利)|(?P&lt;b&gt;雅施达|培哚普利)|(?P&lt;c&gt;瑞素坦|雷米普利)|(?P&lt;d&gt;敌亚平|贝那普利)|(?P&lt;oth&gt;ACEI|acei)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;雅利|福辛普利)|(?P&lt;b&gt;雅施达|培哚普利)|(?P&lt;c&gt;瑞素坦|雷米普利)|(?P&lt;d&gt;敌亚平|贝那普利)|(?P&lt;oth&gt;ACEI|acei)'}]</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '解析方式': '规则', '规则': '(?P&lt;a&gt;缬沙坦)|(?P&lt;b&gt;氯沙坦)|(?P&lt;c&gt;厄贝沙坦)|(?P&lt;d&gt;替米沙坦)|(?P&lt;oth&gt;ARB)'}]</t>
+          <t>[{'文件名': '医嘱', '表索引': '出院带药_药物', '行筛选条件': '', '解析方式': '规则', '规则': '(?P&lt;a&gt;缬沙坦)|(?P&lt;b&gt;氯沙坦)|(?P&lt;c&gt;厄贝沙坦)|(?P&lt;d&gt;替米沙坦)|(?P&lt;oth&gt;ARB)'}]</t>
         </is>
       </c>
     </row>
